--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>90.287002765822</v>
+        <v>105.2534506666667</v>
       </c>
       <c r="H2">
-        <v>90.287002765822</v>
+        <v>315.760352</v>
       </c>
       <c r="I2">
-        <v>0.2803285662420085</v>
+        <v>0.2966477300323703</v>
       </c>
       <c r="J2">
-        <v>0.2803285662420085</v>
+        <v>0.2966477300323703</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.48725504747486</v>
+        <v>51.23401333333334</v>
       </c>
       <c r="N2">
-        <v>3.48725504747486</v>
+        <v>153.70204</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="Q2">
-        <v>314.8538061164894</v>
+        <v>5392.556694835343</v>
       </c>
       <c r="R2">
-        <v>314.8538061164894</v>
+        <v>48533.01025351808</v>
       </c>
       <c r="S2">
-        <v>0.2803285662420085</v>
+        <v>0.2873990484872144</v>
       </c>
       <c r="T2">
-        <v>0.2803285662420085</v>
+        <v>0.2873990484872144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>159.916014128788</v>
+        <v>105.2534506666667</v>
       </c>
       <c r="H3">
-        <v>159.916014128788</v>
+        <v>315.760352</v>
       </c>
       <c r="I3">
-        <v>0.4965169469201813</v>
+        <v>0.2966477300323703</v>
       </c>
       <c r="J3">
-        <v>0.4965169469201813</v>
+        <v>0.2966477300323703</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.48725504747486</v>
+        <v>1.648742666666666</v>
       </c>
       <c r="N3">
-        <v>3.48725504747486</v>
+        <v>4.946228</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03117732114163389</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03117732114163389</v>
       </c>
       <c r="Q3">
-        <v>557.667927442677</v>
+        <v>173.5358549280284</v>
       </c>
       <c r="R3">
-        <v>557.667927442677</v>
+        <v>1561.822694352256</v>
       </c>
       <c r="S3">
-        <v>0.4965169469201813</v>
+        <v>0.00924868154515592</v>
       </c>
       <c r="T3">
-        <v>0.4965169469201813</v>
+        <v>0.009248681545155922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.8726244721602</v>
+        <v>161.0956266666667</v>
       </c>
       <c r="H4">
-        <v>71.8726244721602</v>
+        <v>483.28688</v>
       </c>
       <c r="I4">
-        <v>0.2231544868378102</v>
+        <v>0.4540340641196984</v>
       </c>
       <c r="J4">
-        <v>0.2231544868378102</v>
+        <v>0.4540340641196984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.48725504747486</v>
+        <v>51.23401333333334</v>
       </c>
       <c r="N4">
-        <v>3.48725504747486</v>
+        <v>153.70204</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="Q4">
-        <v>250.6381724658058</v>
+        <v>8253.57548458169</v>
       </c>
       <c r="R4">
-        <v>250.6381724658058</v>
+        <v>74282.1793612352</v>
       </c>
       <c r="S4">
-        <v>0.2231544868378102</v>
+        <v>0.4398784982933974</v>
       </c>
       <c r="T4">
-        <v>0.2231544868378102</v>
+        <v>0.4398784982933974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>161.0956266666667</v>
+      </c>
+      <c r="H5">
+        <v>483.28688</v>
+      </c>
+      <c r="I5">
+        <v>0.4540340641196984</v>
+      </c>
+      <c r="J5">
+        <v>0.4540340641196984</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N5">
+        <v>4.946228</v>
+      </c>
+      <c r="O5">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P5">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q5">
+        <v>265.6052330987378</v>
+      </c>
+      <c r="R5">
+        <v>2390.44709788864</v>
+      </c>
+      <c r="S5">
+        <v>0.01415556582630103</v>
+      </c>
+      <c r="T5">
+        <v>0.01415556582630103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>88.46048300000001</v>
+      </c>
+      <c r="H6">
+        <v>265.381449</v>
+      </c>
+      <c r="I6">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="J6">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>51.23401333333334</v>
+      </c>
+      <c r="N6">
+        <v>153.70204</v>
+      </c>
+      <c r="O6">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="P6">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="Q6">
+        <v>4532.185565495108</v>
+      </c>
+      <c r="R6">
+        <v>40789.67008945597</v>
+      </c>
+      <c r="S6">
+        <v>0.2415451320777544</v>
+      </c>
+      <c r="T6">
+        <v>0.2415451320777544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>88.46048300000001</v>
+      </c>
+      <c r="H7">
+        <v>265.381449</v>
+      </c>
+      <c r="I7">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="J7">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N7">
+        <v>4.946228</v>
+      </c>
+      <c r="O7">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P7">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q7">
+        <v>145.8485726360413</v>
+      </c>
+      <c r="R7">
+        <v>1312.637153724372</v>
+      </c>
+      <c r="S7">
+        <v>0.007773073770176938</v>
+      </c>
+      <c r="T7">
+        <v>0.007773073770176939</v>
       </c>
     </row>
   </sheetData>
